--- a/biology/Zoologie/Coq_de_pêche/Coq_de_pêche.xlsx
+++ b/biology/Zoologie/Coq_de_pêche/Coq_de_pêche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coq_de_p%C3%AAche</t>
+          <t>Coq_de_pêche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Coq de pêche est le nom donné à certaines races de coqs dont certaines plumes présentent des caractéristiques recherchées dans la fabrication des mouches artificielles servant de leurre pour la pêche à la mouche.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coq_de_p%C3%AAche</t>
+          <t>Coq_de_pêche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plus ancienne trace de l'utilisation avérée de plumes de coq dans la fabrication de leurre pour la pêche, se trouve dans le Natura Animalium, où Élien (200 ap. J.-C.) décrit une technique de pêche macédonienne consistant à leurrer des "poissons tachetés" (probablement des truites fario) à l'aide d'hameçons recouverts de laine rouge et cerclés de plumes de coq.Mais les contraintes liées tant à la fabrication des mouches qu'à l'esthétique nécessaire à l'imitation des insectes dont le poisson se nourrit, a sans aucun doute contraint très tôt les utilisateurs à sélectionner les animaux dont les plumes sont issues. Et donc à en faire l'élevage. Ainsi, dans le Manuscrit d'Astorga édité en Espagne en 1624 par Juan de Bergara sont décrites 33 mouches utilisant les plumes des coqs Indios et Pardos du Léon. Le coq du Limousin a lui aussi une origine qui se perd dans la nuit des temps. Chacune des deux régions (Léon et Limousin) se dispute la préexistence de ses élevages depuis l'époque du Pèlerinage de Saint-Jacques-de-Compostelle.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coq_de_p%C3%AAche</t>
+          <t>Coq_de_pêche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,49 @@
           <t>Le coq du Limousin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le coq de pêche du Limousin est issu d'une très ancienne race fermière de France, des régions granitiques, plus particulièrement de Haute Corrèze.
 Chaque année il fait la fierté de sa capitale : Neuvic en Corrèze. Un grand concours national est organisé tous les 1er mai et les ventes peuvent y atteindre des prix très élevés.
-Caractéristiques
-Ces descriptions proviennent du site de la FERME (Fédération pour promouvoir l'Elevage des Races domestiques MEnacées) [1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coq_de_pêche</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coq_de_p%C3%AAche</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le coq du Limousin</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces descriptions proviennent du site de la FERME (Fédération pour promouvoir l'Elevage des Races domestiques MEnacées) .
 Corps assez ramassé, plutôt large. Poids du coq 3 kg et 2,5 kg pour la poule. Plumage noir ou bleu seuls admis.
 Tête moyenne à l'arcade sourcilière marquée ; crête simple et droite (de 5 à 7 dents).
 Bec court et assez fort, couleur corne foncée ; yeux rouge orangé,  regard vif.
@@ -564,31 +615,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Coq_de_p%C3%AAche</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coq_de_pêche</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Coq_de_p%C3%AAche</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Les élevages américains</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
